--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nid1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nid1-Itgb3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.995596</v>
+        <v>28.743868</v>
       </c>
       <c r="H2">
-        <v>131.986788</v>
+        <v>86.231604</v>
       </c>
       <c r="I2">
-        <v>0.08241811124115486</v>
+        <v>0.0554303735704667</v>
       </c>
       <c r="J2">
-        <v>0.08241811124115485</v>
+        <v>0.0554303735704667</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N2">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q2">
-        <v>317.3890983899573</v>
+        <v>8.341163892341335</v>
       </c>
       <c r="R2">
-        <v>2856.501885509616</v>
+        <v>75.07047503107201</v>
       </c>
       <c r="S2">
-        <v>0.03864440012073516</v>
+        <v>0.001900923454341375</v>
       </c>
       <c r="T2">
-        <v>0.03864440012073515</v>
+        <v>0.001900923454341375</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.995596</v>
+        <v>28.743868</v>
       </c>
       <c r="H3">
-        <v>131.986788</v>
+        <v>86.231604</v>
       </c>
       <c r="I3">
-        <v>0.08241811124115486</v>
+        <v>0.0554303735704667</v>
       </c>
       <c r="J3">
-        <v>0.08241811124115485</v>
+        <v>0.0554303735704667</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q3">
-        <v>312.8241153489973</v>
+        <v>204.3789809963787</v>
       </c>
       <c r="R3">
-        <v>2815.417038140976</v>
+        <v>1839.410828967408</v>
       </c>
       <c r="S3">
-        <v>0.03808858067994743</v>
+        <v>0.0465772886811547</v>
       </c>
       <c r="T3">
-        <v>0.03808858067994742</v>
+        <v>0.0465772886811547</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.995596</v>
+        <v>28.743868</v>
       </c>
       <c r="H4">
-        <v>131.986788</v>
+        <v>86.231604</v>
       </c>
       <c r="I4">
-        <v>0.08241811124115486</v>
+        <v>0.0554303735704667</v>
       </c>
       <c r="J4">
-        <v>0.08241811124115485</v>
+        <v>0.0554303735704667</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q4">
-        <v>46.69236471761466</v>
+        <v>30.50576171421734</v>
       </c>
       <c r="R4">
-        <v>420.231282458532</v>
+        <v>274.551855427956</v>
       </c>
       <c r="S4">
-        <v>0.00568513044047228</v>
+        <v>0.006952161434970624</v>
       </c>
       <c r="T4">
-        <v>0.005685130440472279</v>
+        <v>0.006952161434970623</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1319.462585</v>
       </c>
       <c r="I5">
-        <v>0.8239280291378236</v>
+        <v>0.848161237947095</v>
       </c>
       <c r="J5">
-        <v>0.8239280291378236</v>
+        <v>0.8481612379470951</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N5">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q5">
-        <v>3172.916369572024</v>
+        <v>127.6313226331422</v>
       </c>
       <c r="R5">
-        <v>28556.24732614822</v>
+        <v>1148.68190369828</v>
       </c>
       <c r="S5">
-        <v>0.3863253349197309</v>
+        <v>0.0290867530998542</v>
       </c>
       <c r="T5">
-        <v>0.3863253349197309</v>
+        <v>0.0290867530998542</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1319.462585</v>
       </c>
       <c r="I6">
-        <v>0.8239280291378236</v>
+        <v>0.848161237947095</v>
       </c>
       <c r="J6">
-        <v>0.8239280291378236</v>
+        <v>0.8481612379470951</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q6">
         <v>3127.280556965491</v>
@@ -818,10 +818,10 @@
         <v>28145.52501268942</v>
       </c>
       <c r="S6">
-        <v>0.3807688472799602</v>
+        <v>0.7126968173470092</v>
       </c>
       <c r="T6">
-        <v>0.3807688472799602</v>
+        <v>0.7126968173470093</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1319.462585</v>
       </c>
       <c r="I7">
-        <v>0.8239280291378236</v>
+        <v>0.848161237947095</v>
       </c>
       <c r="J7">
-        <v>0.8239280291378236</v>
+        <v>0.8481612379470951</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q7">
         <v>466.7802678103405</v>
       </c>
       <c r="R7">
-        <v>4201.022410293064</v>
+        <v>4201.022410293065</v>
       </c>
       <c r="S7">
-        <v>0.0568338469381325</v>
+        <v>0.1063776675002317</v>
       </c>
       <c r="T7">
-        <v>0.0568338469381325</v>
+        <v>0.1063776675002317</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.99334866666667</v>
+        <v>49.99334866666666</v>
       </c>
       <c r="H8">
         <v>149.980046</v>
       </c>
       <c r="I8">
-        <v>0.09365385962102149</v>
+        <v>0.09640838848243828</v>
       </c>
       <c r="J8">
-        <v>0.09365385962102149</v>
+        <v>0.09640838848243828</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N8">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q8">
-        <v>360.6575498785858</v>
+        <v>14.50753652068089</v>
       </c>
       <c r="R8">
-        <v>3245.917948907272</v>
+        <v>130.567828686128</v>
       </c>
       <c r="S8">
-        <v>0.04391264455765273</v>
+        <v>0.003306219227055063</v>
       </c>
       <c r="T8">
-        <v>0.04391264455765273</v>
+        <v>0.003306219227055063</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>49.99334866666667</v>
+        <v>49.99334866666666</v>
       </c>
       <c r="H9">
         <v>149.980046</v>
       </c>
       <c r="I9">
-        <v>0.09365385962102149</v>
+        <v>0.09640838848243828</v>
       </c>
       <c r="J9">
-        <v>0.09365385962102149</v>
+        <v>0.09640838848243828</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q9">
-        <v>355.4702400209325</v>
+        <v>355.4702400209324</v>
       </c>
       <c r="R9">
         <v>3199.232160188392</v>
       </c>
       <c r="S9">
-        <v>0.04328105236149263</v>
+        <v>0.08101048310495142</v>
       </c>
       <c r="T9">
-        <v>0.04328105236149263</v>
+        <v>0.08101048310495142</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.99334866666667</v>
+        <v>49.99334866666666</v>
       </c>
       <c r="H10">
         <v>149.980046</v>
       </c>
       <c r="I10">
-        <v>0.09365385962102149</v>
+        <v>0.09640838848243828</v>
       </c>
       <c r="J10">
-        <v>0.09365385962102149</v>
+        <v>0.09640838848243828</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q10">
         <v>53.05775763098822</v>
@@ -1066,10 +1066,10 @@
         <v>477.519818678894</v>
       </c>
       <c r="S10">
-        <v>0.006460162701876137</v>
+        <v>0.01209168615043181</v>
       </c>
       <c r="T10">
-        <v>0.006460162701876137</v>
+        <v>0.0120916861504318</v>
       </c>
     </row>
   </sheetData>
